--- a/MODERN MECHANICS/Lab_4_sheet.xlsx
+++ b/MODERN MECHANICS/Lab_4_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周嘉禾\OneDrive\桌面\FCU\MODERN MECHANICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\MODERN MECHANICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4779BD68-30E8-4420-BF30-E05A4679A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8956697A-201D-4CD4-95D6-048CA4CAEED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F36F3B7-1A2F-4180-9703-A01464DA0B24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8F36F3B7-1A2F-4180-9703-A01464DA0B24}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +74,30 @@
   </si>
   <si>
     <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,17 +162,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,14 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAD1AE5-8332-41CF-9069-804A52B195EA}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K13"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -501,21 +525,21 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2">
@@ -534,29 +558,29 @@
         <f>D2+(E2/100)-(C2/100)</f>
         <v>1.5199999999999998</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <f>(F2+F3)/2</f>
         <v>1.5149999999999999</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <f>AVERAGE(G2:G13)</f>
         <v>1.5065833333333332</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <f>G2-H$2</f>
         <v>8.4166666666667389E-3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <f>STDEV(G2:G13)</f>
         <v>1.4094029468773823E-2</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <f>J2/SQRT(6)</f>
         <v>5.7538634363742212E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -573,14 +597,14 @@
         <f t="shared" ref="F3:F13" si="0">D3+(E3/100)-(C3/100)</f>
         <v>1.51</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4">
@@ -599,20 +623,20 @@
         <f t="shared" si="0"/>
         <v>1.518</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <f>(F4+F5)/2</f>
         <v>1.516</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
+      <c r="H4" s="6"/>
+      <c r="I4" s="4">
         <f t="shared" ref="I4" si="1">G4-H$2</f>
         <v>9.4166666666668508E-3</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>2</v>
       </c>
@@ -629,14 +653,14 @@
         <f t="shared" si="0"/>
         <v>1.514</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6">
@@ -655,20 +679,20 @@
         <f t="shared" si="0"/>
         <v>1.5229999999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f>(F6+F7)/2</f>
         <v>1.5179999999999998</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6">
+      <c r="H6" s="6"/>
+      <c r="I6" s="4">
         <f t="shared" ref="I6" si="2">G6-H$2</f>
         <v>1.1416666666666631E-2</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -685,14 +709,14 @@
         <f t="shared" si="0"/>
         <v>1.5129999999999999</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8">
@@ -711,20 +735,20 @@
         <f t="shared" si="0"/>
         <v>1.5069999999999999</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <f>(F8+F9)/2</f>
         <v>1.5124999999999997</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6">
+      <c r="H8" s="6"/>
+      <c r="I8" s="4">
         <f t="shared" ref="I8" si="3">G8-H$2</f>
         <v>5.9166666666665702E-3</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5"/>
       <c r="B9">
         <v>2</v>
       </c>
@@ -741,14 +765,14 @@
         <f t="shared" si="0"/>
         <v>1.5179999999999998</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10">
@@ -767,20 +791,20 @@
         <f t="shared" si="0"/>
         <v>1.4749999999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <f>(F10+F11)/2</f>
         <v>1.484</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6">
+      <c r="H10" s="6"/>
+      <c r="I10" s="4">
         <f t="shared" ref="I10" si="4">G10-H$2</f>
         <v>-2.2583333333333178E-2</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11">
         <v>2</v>
       </c>
@@ -797,14 +821,14 @@
         <f t="shared" si="0"/>
         <v>1.4929999999999999</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
       <c r="B12">
@@ -823,20 +847,20 @@
         <f t="shared" si="0"/>
         <v>1.49</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <f>(F12+F13)/2</f>
         <v>1.494</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
+      <c r="H12" s="6"/>
+      <c r="I12" s="4">
         <f t="shared" ref="I12" si="5">G12-H$2</f>
         <v>-1.2583333333333169E-2</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13">
         <v>2</v>
       </c>
@@ -853,14 +877,156 @@
         <f t="shared" si="0"/>
         <v>1.498</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7">
+        <f>MAX(G2:G13)</f>
+        <v>1.5179999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7">
+        <f>MIN(G2:G13)</f>
+        <v>1.484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <f>B15-B16</f>
+        <v>3.3999999999999808E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <f>B17/5</f>
+        <v>6.7999999999999615E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f>B16+0*B17</f>
+        <v>1.484</v>
+      </c>
+      <c r="C21">
+        <f>B16+0.2*B17-0.0001</f>
+        <v>1.4906999999999999</v>
+      </c>
+      <c r="D21">
+        <f t="array" ref="D21:D25">FREQUENCY(G2:G13,C21:C25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <f>B16+0.2*B17</f>
+        <v>1.4907999999999999</v>
+      </c>
+      <c r="C22">
+        <f>B16+0.4*B17-0.0001</f>
+        <v>1.4974999999999998</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <f>B16+0.4*B17</f>
+        <v>1.4975999999999998</v>
+      </c>
+      <c r="C23">
+        <f>B16+0.6*B17-0.0001</f>
+        <v>1.5043</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <f>B16+0.6*B17</f>
+        <v>1.5044</v>
+      </c>
+      <c r="C24">
+        <f>B16+0.8*B17-0.0001</f>
+        <v>1.5110999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <f>B16+0.8*B17</f>
+        <v>1.5111999999999999</v>
+      </c>
+      <c r="C25">
+        <f>B16+1*B17</f>
+        <v>1.5179999999999998</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="J2:J13"/>
+    <mergeCell ref="K2:K13"/>
+    <mergeCell ref="H2:H13"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -873,15 +1039,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J2:J13"/>
-    <mergeCell ref="K2:K13"/>
-    <mergeCell ref="H2:H13"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
